--- a/www/IndicatorsPerCountry/Madagascar_NumberofLabourDisputes_TerritorialRef_1960_2012_CCode_450.xlsx
+++ b/www/IndicatorsPerCountry/Madagascar_NumberofLabourDisputes_TerritorialRef_1960_2012_CCode_450.xlsx
@@ -108,13 +108,13 @@
     <t>Velden, Sjaak van der (2015). Number of Labour Disputes. http://hdl.handle.net/10622/H4C6B7, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_H4C6B7.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_H4C6B7.bib</t>
   </si>
 </sst>
 </file>
